--- a/aug_pc_result/2026_Feb_28_19_31_39_d_separation_spearman_pc_gt_graph_150_90936/aug_pc_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_28_19_31_39_d_separation_spearman_pc_gt_graph_150_90936/aug_pc_eval_res.xlsx
@@ -236,6 +236,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
